--- a/data/trans_orig/P79A1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79A1_2023-Clase-trans_orig.xlsx
@@ -741,7 +741,7 @@
         <v>4575</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5763</v>
@@ -750,7 +750,7 @@
         <v>0.7938624286745963</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.197881766289925</v>
+        <v>0.1955052507351143</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>8638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4962</v>
+        <v>5227</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>9826</v>
@@ -784,7 +784,7 @@
         <v>0.8791059421050912</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5050057968614183</v>
+        <v>0.5319588693199894</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4623</v>
+        <v>4636</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2061375713254036</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8021182337100757</v>
+        <v>0.804494749264886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4864</v>
+        <v>4599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1208940578949089</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4949942031385816</v>
+        <v>0.4680411306800135</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +942,7 @@
         <v>7595</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2702</v>
+        <v>2801</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>9172</v>
@@ -951,7 +951,7 @@
         <v>0.828052230521035</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2945780448159307</v>
+        <v>0.3053990570199076</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>3820</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1670</v>
+        <v>1688</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>4467</v>
@@ -972,7 +972,7 @@
         <v>0.8551592412058395</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3738335638785032</v>
+        <v>0.3778460997776343</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -984,16 +984,16 @@
         <v>11415</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6945</v>
+        <v>6814</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>13639</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8369310957703578</v>
+        <v>0.836931095770358</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.509222887013844</v>
+        <v>0.4995750112291511</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6470</v>
+        <v>6371</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.171947769478965</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7054219551840689</v>
+        <v>0.6946009429800913</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2872</v>
+        <v>2845</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1448407587941606</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.643020391606499</v>
+        <v>0.6368569196765306</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6694</v>
+        <v>6825</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1630689042296421</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4907771129861557</v>
+        <v>0.5004249887708483</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>9321</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5937</v>
+        <v>6085</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>10337</v>
@@ -1317,7 +1317,7 @@
         <v>0.9016913726052624</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5743216149290031</v>
+        <v>0.588640527162162</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>6950</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3905</v>
+        <v>4016</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>7635</v>
@@ -1338,7 +1338,7 @@
         <v>0.9102198895186439</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5114580454110383</v>
+        <v>0.5259523773218866</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1350,16 +1350,16 @@
         <v>16270</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12623</v>
+        <v>12804</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>17972</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9053144076973767</v>
+        <v>0.9053144076973768</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7023464907867133</v>
+        <v>0.7124501695291113</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4400</v>
+        <v>4252</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0983086273947376</v>
+        <v>0.09830862739473759</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.425678385070997</v>
+        <v>0.41135947283784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3730</v>
+        <v>3619</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08978011048135615</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4885419545889607</v>
+        <v>0.4740476226781142</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5349</v>
+        <v>5168</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09468559230262327</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2976535092132868</v>
+        <v>0.2875498304708879</v>
       </c>
     </row>
     <row r="15">
@@ -1538,16 +1538,16 @@
         <v>6398</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3719</v>
+        <v>3732</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>7961</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8036828239584534</v>
+        <v>0.8036828239584533</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4672019142878308</v>
+        <v>0.4687502105823083</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>8583</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5327</v>
+        <v>5704</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>10146</v>
@@ -1568,7 +1568,7 @@
         <v>0.8459752860871514</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5249903294592742</v>
+        <v>0.5621882583641888</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4242</v>
+        <v>4229</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1963171760415467</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5327980857121692</v>
+        <v>0.5312497894176917</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4819</v>
+        <v>4442</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1540247139128485</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4750096705407256</v>
+        <v>0.4378117416358109</v>
       </c>
     </row>
     <row r="18">
@@ -1895,19 +1895,19 @@
         <v>30961</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24705</v>
+        <v>24518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33719</v>
+        <v>33707</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8911634239501254</v>
+        <v>0.8911634239501253</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7110862980781096</v>
+        <v>0.705715058155631</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.970559150217009</v>
+        <v>0.9702157100088056</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -1916,19 +1916,19 @@
         <v>22604</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18793</v>
+        <v>18966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24806</v>
+        <v>24818</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.886454536638155</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.737008594944676</v>
+        <v>0.7437806535327599</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9728278536387069</v>
+        <v>0.9733082937331488</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -1937,19 +1937,19 @@
         <v>53565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46745</v>
+        <v>47216</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57291</v>
+        <v>57359</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8891702126010994</v>
+        <v>0.8891702126010995</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7759641094291435</v>
+        <v>0.7837797016899024</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9510349102973898</v>
+        <v>0.9521533868826897</v>
       </c>
     </row>
     <row r="23">
@@ -1966,19 +1966,19 @@
         <v>3781</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10037</v>
+        <v>10224</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1088365760498748</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02944084978299099</v>
+        <v>0.02978428999119431</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2889137019218905</v>
+        <v>0.2942849418443691</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -1987,19 +1987,19 @@
         <v>2895</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6706</v>
+        <v>6533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1135454633618452</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02717214636129301</v>
+        <v>0.02669170626685134</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2629914050553239</v>
+        <v>0.2562193464672403</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2008,19 +2008,19 @@
         <v>6676</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2950</v>
+        <v>2882</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13496</v>
+        <v>13025</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1108297873989006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04896508970260999</v>
+        <v>0.04784661311731012</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2240358905708565</v>
+        <v>0.2162202983100977</v>
       </c>
     </row>
     <row r="24">
